--- a/docs/Tabela_de_Instrucoes.xlsx
+++ b/docs/Tabela_de_Instrucoes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
@@ -689,7 +689,7 @@
     <xf fontId="5" fillId="2" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="6" fillId="6" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
@@ -803,6 +803,9 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="27" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="28" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -9404,10 +9407,10 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="47" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -13316,15 +13319,15 @@
       <c r="AO22" s="43"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
       <c r="P23" s="1" t="s">
         <v>47</v>
       </c>
@@ -22869,19 +22872,19 @@
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
       <c r="P18" s="1" t="str">
         <f t="shared" si="173"/>
         <v>I</v>
@@ -22944,19 +22947,19 @@
       <c r="A19">
         <v>7</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
       <c r="P19" s="1" t="str">
         <f t="shared" si="173"/>
         <v>I</v>
@@ -26163,19 +26166,19 @@
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
       <c r="P16" s="1" t="str">
         <f t="shared" si="198"/>
         <v>I</v>
@@ -26267,19 +26270,19 @@
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
       <c r="P17" s="1" t="str">
         <f t="shared" si="198"/>
         <v>I</v>
@@ -26371,19 +26374,19 @@
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
       <c r="P18" s="1" t="str">
         <f t="shared" si="198"/>
         <v>I</v>
@@ -26446,19 +26449,19 @@
       <c r="A19">
         <v>7</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
       <c r="P19" s="1" t="str">
         <f t="shared" si="198"/>
         <v>I</v>
